--- a/farmServer/config/Resp.xlsx
+++ b/farmServer/config/Resp.xlsx
@@ -166,11 +166,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标数据不存在</t>
+    <t>100005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100005</t>
+    <t>请求参数有误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +739,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/farmServer/config/Resp.xlsx
+++ b/farmServer/config/Resp.xlsx
@@ -25,13 +25,14 @@
     <author>zhuzhengqing</author>
   </authors>
   <commentList>
-    <comment ref="B10" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>zhuzhengqing:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>错误id</t>
   </si>
@@ -360,12 +362,93 @@
     <t>目标玩家不存在</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>110012</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标玩家没有可偷取得作物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110013</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>该垃圾不存在</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110014</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能清理本人释放的垃圾</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00007</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单数量已达上限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>700008</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单已过期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00006</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石数目不足</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110015</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已拥有该宠物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,28 +466,33 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,6 +509,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -479,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +614,12 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -871,309 +973,365 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-    </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-    </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="10"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
+      <c r="A37" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
+      <c r="A38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" t="s">
-        <v>44</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B64" t="s">
         <v>56</v>
       </c>
     </row>

--- a/farmServer/config/Resp.xlsx
+++ b/farmServer/config/Resp.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>错误id</t>
   </si>
@@ -441,6 +441,152 @@
   </si>
   <si>
     <t>已拥有该宠物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>街边摊</t>
+  </si>
+  <si>
+    <t>600001</t>
+  </si>
+  <si>
+    <t>没有上架物品</t>
+  </si>
+  <si>
+    <t>600002</t>
+  </si>
+  <si>
+    <t>上架失败，摊位数达到上限</t>
+  </si>
+  <si>
+    <t>600003</t>
+  </si>
+  <si>
+    <t>上架失败，摊位已存在物品</t>
+  </si>
+  <si>
+    <t>600004</t>
+  </si>
+  <si>
+    <t>上架失败，请求上架的物品数超过总数</t>
+  </si>
+  <si>
+    <t>600005</t>
+  </si>
+  <si>
+    <t>上架失败，更新仓库信息失败</t>
+  </si>
+  <si>
+    <t>600006</t>
+  </si>
+  <si>
+    <t>上架失败，添加街边摊物品信息失败</t>
+  </si>
+  <si>
+    <t>600007</t>
+  </si>
+  <si>
+    <t>下架失败，找不到下架物品</t>
+  </si>
+  <si>
+    <t>600008</t>
+  </si>
+  <si>
+    <t>下架失败，更新仓库信息失败</t>
+  </si>
+  <si>
+    <t>600009</t>
+  </si>
+  <si>
+    <t>下架失败，删除街边摊物品信息失败</t>
+  </si>
+  <si>
+    <t>600010</t>
+  </si>
+  <si>
+    <t>购买失败，购买的物品不存在</t>
+  </si>
+  <si>
+    <t>600011</t>
+  </si>
+  <si>
+    <t>购买失败，金币不足</t>
+  </si>
+  <si>
+    <t>600012</t>
+  </si>
+  <si>
+    <t>购买失败，物品处于已售状态</t>
+  </si>
+  <si>
+    <t>600013</t>
+  </si>
+  <si>
+    <t>购买失败，更新街边摊物品信息失败</t>
+  </si>
+  <si>
+    <t>600014</t>
+  </si>
+  <si>
+    <t>购买失败，更新仓库信息失败</t>
+  </si>
+  <si>
+    <t>600015</t>
+  </si>
+  <si>
+    <t>购买失败，玩家信息更新失败</t>
+  </si>
+  <si>
+    <t>600016</t>
+  </si>
+  <si>
+    <t>出售失败，出售的物品不存在</t>
+  </si>
+  <si>
+    <t>600017</t>
+  </si>
+  <si>
+    <t>出售失败，物品未处于已售状态</t>
+  </si>
+  <si>
+    <t>600018</t>
+  </si>
+  <si>
+    <t>出售失败，更新玩家信息失败</t>
+  </si>
+  <si>
+    <t>600019</t>
+  </si>
+  <si>
+    <t>出售失败，删除街边摊物品信息失败</t>
+  </si>
+  <si>
+    <t>600020</t>
+  </si>
+  <si>
+    <t>扩充摊位失败，已达上限值</t>
+  </si>
+  <si>
+    <t>600021</t>
+  </si>
+  <si>
+    <t>扩充摊位失败，钻石不足</t>
+  </si>
+  <si>
+    <t>600022</t>
+  </si>
+  <si>
+    <t>扩充摊位失败，更新玩家信息失败</t>
+  </si>
+  <si>
+    <t>110016</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物没有该技能</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -896,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1095,243 +1241,435 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
     </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>95</v>
+      <c r="A37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>97</v>
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
-        <v>48</v>
+      <c r="A60" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" t="s">
-        <v>52</v>
+      <c r="A61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B83" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B86" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B87" t="s">
         <v>56</v>
       </c>
     </row>
